--- a/src/test/resources/excel/Testdata.xlsx
+++ b/src/test/resources/excel/Testdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Frameworks_Java\DatadrivenFrameworkCICD\src\test\resources\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/365ffada5ff82b8e/Documents/CI_CD_Files/FromGitHub/balaji/JavaMavenPipelines/src/test/resources/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29718CE-4FDB-4138-AA9B-6CA492B88F73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{F29718CE-4FDB-4138-AA9B-6CA492B88F73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CBD52F27-73A3-4E60-8328-69A9F72608B5}"/>
   <bookViews>
-    <workbookView xWindow="3348" yWindow="3348" windowWidth="17280" windowHeight="8880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BuyProductTest" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="25">
   <si>
     <t>username</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>BuyProductTest</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -536,8 +539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -712,8 +715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4"/>
@@ -753,7 +756,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -764,7 +767,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -775,7 +778,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
